--- a/tests/fixtures/test_masterdata.xlsx
+++ b/tests/fixtures/test_masterdata.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\DataAnalysis\tests\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1E7C9-A4D1-4A31-9BC3-85E23CF74A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22455" yWindow="2490" windowWidth="27600" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>sku</t>
   </si>
@@ -38,17 +44,25 @@
   </si>
   <si>
     <t>SKU003</t>
+  </si>
+  <si>
+    <t>KPL5997TÓW7618911</t>
+  </si>
+  <si>
+    <t>OTW5997KIT7619912</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,52 +91,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf/>
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000;[Red]-#,##0.000"/>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="sku" dataDxfId="0"/>
-    <tableColumn id="2" name="length_mm" dataDxfId="1"/>
-    <tableColumn id="3" name="width_mm" dataDxfId="1"/>
-    <tableColumn id="4" name="height_mm" dataDxfId="1"/>
-    <tableColumn id="5" name="weight_kg" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sku"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="length_mm" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="width_mm" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="height_mm" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="weight_kg" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1779C01E-07A2-49A3-8307-3CE07E547882}" name="stock" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +466,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -443,8 +486,11 @@
       <c r="E2" s="3">
         <v>1.5</v>
       </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -460,8 +506,11 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,6 +525,49 @@
       </c>
       <c r="E4" s="3">
         <v>2.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>216</v>
+      </c>
+      <c r="D5">
+        <v>1136</v>
+      </c>
+      <c r="E5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>390</v>
+      </c>
+      <c r="C6">
+        <v>290</v>
+      </c>
+      <c r="D6">
+        <v>4388</v>
+      </c>
+      <c r="E6">
+        <v>0.44</v>
+      </c>
+      <c r="F6" s="4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
